--- a/s2cDNASample/s2cDNASample_0641.xlsx
+++ b/s2cDNASample/s2cDNASample_0641.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AC5BA4-3933-D24B-B8BC-79D0B1FCBF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A3D8D-A5D9-614C-A1FA-FB8C6DCCB6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19220" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="480" windowWidth="12540" windowHeight="10840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -64,28 +64,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,36 +89,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +412,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B19 E2:E19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,30 +420,30 @@
     <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -501,11 +462,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -524,11 +485,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -547,11 +508,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -570,11 +531,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -593,11 +554,11 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -616,11 +577,11 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -639,11 +600,11 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -662,11 +623,11 @@
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -685,11 +646,11 @@
       <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -708,11 +669,11 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -731,11 +692,11 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -754,11 +715,11 @@
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -777,11 +738,11 @@
       <c r="F14">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -800,11 +761,11 @@
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -823,11 +784,11 @@
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -846,11 +807,11 @@
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -869,11 +830,11 @@
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -892,7 +853,7 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>8</v>
       </c>
     </row>
